--- a/classfiers/greedy/svm/greedy-svm-sigmoid-results.xlsx
+++ b/classfiers/greedy/svm/greedy-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9376811594202898</v>
+        <v>0.008658008658008623</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9782608695652175</v>
+        <v>0.316017316017316</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7608695652173914</v>
+        <v>0.01515151515151514</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6347826086956522</v>
+        <v>0.01731601731601728</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8978260869565218</v>
+        <v>0.04347826086956519</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8418840579710146</v>
+        <v>0.08012422360248445</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/svm/greedy-svm-sigmoid-results.xlsx
+++ b/classfiers/greedy/svm/greedy-svm-sigmoid-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008658008658008623</v>
+        <v>0.1809523809523809</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.316017316017316</v>
+        <v>0.6333333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01515151515151514</v>
+        <v>0.7224880382775118</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01731601731601728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04347826086956519</v>
+        <v>0.1164274322169059</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08012422360248445</v>
+        <v>0.3306402369560264</v>
       </c>
     </row>
   </sheetData>
